--- a/Documents/Gantt project planner1.xlsx
+++ b/Documents/Gantt project planner1.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2D4C024-A482-463B-8736-26C355FF83C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D677A2F-AC8B-47C1-8E05-1F5AD64CA0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Actual">(PeriodInActual*('Project Planner'!$F1&gt;0))*PeriodInPlan</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
   <si>
     <t>Project Planner</t>
   </si>
@@ -281,6 +282,30 @@
   </si>
   <si>
     <t>Documentation &amp; Final Review</t>
+  </si>
+  <si>
+    <t>Task ID</t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Estimated Duration (Days)</t>
+  </si>
+  <si>
+    <t>Depends On Task ID(s)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>12,16</t>
+  </si>
+  <si>
+    <t>20,21</t>
+  </si>
+  <si>
+    <t>31,32</t>
   </si>
 </sst>
 </file>
@@ -618,7 +643,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -684,42 +709,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="19" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -738,10 +727,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,6 +796,26 @@
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -879,26 +927,6 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1161,8 +1189,8 @@
   </sheetPr>
   <dimension ref="A1:BP67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C23" zoomScale="61" zoomScaleNormal="63" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AR34" sqref="AR34"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="63" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AM32" sqref="AM32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1202,70 +1230,70 @@
         <v>1</v>
       </c>
       <c r="K2" s="15"/>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="31"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="41"/>
       <c r="Q2" s="16"/>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="31"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="41"/>
       <c r="V2" s="17"/>
-      <c r="W2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="33"/>
+      <c r="W2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="43"/>
       <c r="AA2" s="18"/>
-      <c r="AB2" s="22" t="s">
+      <c r="AB2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="33"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="43"/>
       <c r="AI2" s="19"/>
-      <c r="AJ2" s="22" t="s">
+      <c r="AJ2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
     </row>
     <row r="3" spans="1:68" s="11" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="38" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="20" t="s">
@@ -1292,14 +1320,22 @@
       <c r="AB3" s="10"/>
     </row>
     <row r="4" spans="1:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+      <c r="E4" s="29">
+        <v>2</v>
+      </c>
+      <c r="F4" s="29">
+        <v>1</v>
+      </c>
+      <c r="G4" s="29">
+        <v>2</v>
+      </c>
+      <c r="H4" s="37"/>
       <c r="I4" s="3">
         <v>1</v>
       </c>
@@ -1312,7 +1348,7 @@
       <c r="L4" s="3">
         <v>4</v>
       </c>
-      <c r="M4" s="36">
+      <c r="M4" s="24">
         <v>5</v>
       </c>
       <c r="N4" s="3">
@@ -1482,737 +1518,737 @@
       </c>
     </row>
     <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="29">
         <v>1</v>
       </c>
-      <c r="E5" s="40">
-        <v>2</v>
-      </c>
-      <c r="F5" s="40">
+      <c r="E5" s="29">
+        <v>3</v>
+      </c>
+      <c r="F5" s="29">
         <v>1</v>
       </c>
-      <c r="G5" s="40">
-        <v>2</v>
-      </c>
-      <c r="H5" s="40">
+      <c r="G5" s="29">
+        <v>3</v>
+      </c>
+      <c r="H5" s="28">
         <v>100</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="39"/>
-      <c r="P5" s="37"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="27"/>
+      <c r="P5" s="25"/>
     </row>
     <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="C6" s="34" t="s">
+      <c r="A6" s="31"/>
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="40">
-        <v>1</v>
-      </c>
-      <c r="E6" s="40">
-        <v>3</v>
-      </c>
-      <c r="F6" s="40">
-        <v>1</v>
-      </c>
-      <c r="G6" s="40">
-        <v>3</v>
-      </c>
-      <c r="H6" s="40">
+      <c r="D6" s="29">
+        <v>2</v>
+      </c>
+      <c r="E6" s="29">
+        <v>4</v>
+      </c>
+      <c r="F6" s="29">
+        <v>2</v>
+      </c>
+      <c r="G6" s="29">
+        <v>4</v>
+      </c>
+      <c r="H6" s="28">
         <v>100</v>
       </c>
-      <c r="Q6" s="38"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="C7" s="34" t="s">
+      <c r="A7" s="31"/>
+      <c r="C7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="40">
-        <v>2</v>
-      </c>
-      <c r="E7" s="40">
-        <v>3</v>
-      </c>
-      <c r="F7" s="40">
-        <v>2</v>
-      </c>
-      <c r="G7" s="40">
+      <c r="D7" s="29">
+        <v>3</v>
+      </c>
+      <c r="E7" s="29">
+        <v>2</v>
+      </c>
+      <c r="F7" s="29">
+        <v>3</v>
+      </c>
+      <c r="G7" s="29">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="C8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="29">
         <v>4</v>
       </c>
-      <c r="H7" s="40">
+      <c r="E8" s="29">
+        <v>3</v>
+      </c>
+      <c r="F8" s="29">
+        <v>4</v>
+      </c>
+      <c r="G8" s="29">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="C8" s="34" t="s">
+    <row r="9" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="29">
+        <v>5</v>
+      </c>
+      <c r="E9" s="29">
+        <v>5</v>
+      </c>
+      <c r="F9" s="29">
+        <v>5</v>
+      </c>
+      <c r="G9" s="29">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="C10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="29">
+        <v>5</v>
+      </c>
+      <c r="E10" s="29">
+        <v>3</v>
+      </c>
+      <c r="F10" s="29">
+        <v>5</v>
+      </c>
+      <c r="G10" s="29">
+        <v>3</v>
+      </c>
+      <c r="H10" s="28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="C11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="29">
+        <v>5</v>
+      </c>
+      <c r="E11" s="29">
+        <v>3</v>
+      </c>
+      <c r="F11" s="29">
+        <v>5</v>
+      </c>
+      <c r="G11" s="29">
+        <v>3</v>
+      </c>
+      <c r="H11" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="C12" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="29">
+        <v>5</v>
+      </c>
+      <c r="E12" s="29">
+        <v>2</v>
+      </c>
+      <c r="F12" s="29">
+        <v>5</v>
+      </c>
+      <c r="G12" s="29">
+        <v>2</v>
+      </c>
+      <c r="H12" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="C13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="29">
+        <v>7</v>
+      </c>
+      <c r="E13" s="29">
+        <v>3</v>
+      </c>
+      <c r="F13" s="29">
+        <v>7</v>
+      </c>
+      <c r="G13" s="29">
+        <v>3</v>
+      </c>
+      <c r="H13" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="29">
+        <v>10</v>
+      </c>
+      <c r="E14" s="29">
+        <v>5</v>
+      </c>
+      <c r="F14" s="29">
+        <v>10</v>
+      </c>
+      <c r="G14" s="29">
+        <v>5</v>
+      </c>
+      <c r="H14" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="C15" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="29">
+        <v>11</v>
+      </c>
+      <c r="E15" s="29">
+        <v>3</v>
+      </c>
+      <c r="F15" s="29">
+        <v>11</v>
+      </c>
+      <c r="G15" s="29">
+        <v>3</v>
+      </c>
+      <c r="H15" s="28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="C16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="29">
+        <v>11</v>
+      </c>
+      <c r="E16" s="29">
+        <v>3</v>
+      </c>
+      <c r="F16" s="29">
+        <v>11</v>
+      </c>
+      <c r="G16" s="29">
+        <v>3</v>
+      </c>
+      <c r="H16" s="28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="C17" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="29">
+        <v>13</v>
+      </c>
+      <c r="E17" s="29">
+        <v>4</v>
+      </c>
+      <c r="F17" s="29">
+        <v>13</v>
+      </c>
+      <c r="G17" s="29">
+        <v>4</v>
+      </c>
+      <c r="H17" s="28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="C18" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="29">
+        <v>9</v>
+      </c>
+      <c r="E18" s="29">
+        <v>3</v>
+      </c>
+      <c r="F18" s="29">
+        <v>9</v>
+      </c>
+      <c r="G18" s="29">
+        <v>3</v>
+      </c>
+      <c r="H18" s="28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="29">
+        <v>15</v>
+      </c>
+      <c r="E19" s="29">
+        <v>3</v>
+      </c>
+      <c r="F19" s="29">
+        <v>15</v>
+      </c>
+      <c r="G19" s="29">
+        <v>3</v>
+      </c>
+      <c r="H19" s="28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="C20" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="29">
+        <v>12</v>
+      </c>
+      <c r="E20" s="29">
+        <v>3</v>
+      </c>
+      <c r="F20" s="29">
+        <v>12</v>
+      </c>
+      <c r="G20" s="29">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="C21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="29">
+        <v>17</v>
+      </c>
+      <c r="E21" s="29">
+        <v>2</v>
+      </c>
+      <c r="F21" s="29">
+        <v>17</v>
+      </c>
+      <c r="G21" s="29">
+        <v>2</v>
+      </c>
+      <c r="H21" s="28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="C22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="29">
         <v>18</v>
       </c>
-      <c r="D8" s="40">
-        <v>3</v>
-      </c>
-      <c r="E8" s="40">
-        <v>2</v>
-      </c>
-      <c r="F8" s="40">
-        <v>3</v>
-      </c>
-      <c r="G8" s="40">
-        <v>2</v>
-      </c>
-      <c r="H8" s="40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="34" t="s">
+      <c r="E22" s="29">
+        <v>3</v>
+      </c>
+      <c r="F22" s="29">
+        <v>18</v>
+      </c>
+      <c r="G22" s="29">
+        <v>3</v>
+      </c>
+      <c r="H22" s="28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="C23" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="29">
+        <v>14</v>
+      </c>
+      <c r="E23" s="29">
+        <v>2</v>
+      </c>
+      <c r="F23" s="29">
+        <v>14</v>
+      </c>
+      <c r="G23" s="29">
+        <v>2</v>
+      </c>
+      <c r="H23" s="28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="29">
         <v>19</v>
       </c>
-      <c r="D9" s="40">
-        <v>4</v>
-      </c>
-      <c r="E9" s="40">
-        <v>3</v>
-      </c>
-      <c r="F9" s="40">
-        <v>4</v>
-      </c>
-      <c r="G9" s="40">
-        <v>3</v>
-      </c>
-      <c r="H9" s="40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
-      <c r="C10" s="34" t="s">
+      <c r="E24" s="29">
+        <v>2</v>
+      </c>
+      <c r="F24" s="29">
+        <v>19</v>
+      </c>
+      <c r="G24" s="29">
+        <v>2</v>
+      </c>
+      <c r="H24" s="28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="C25" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="29">
         <v>20</v>
       </c>
-      <c r="D10" s="40">
+      <c r="E25" s="29">
+        <v>3</v>
+      </c>
+      <c r="F25" s="29">
+        <v>20</v>
+      </c>
+      <c r="G25" s="29">
+        <v>3</v>
+      </c>
+      <c r="H25" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="C26" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="29">
+        <v>22</v>
+      </c>
+      <c r="E26" s="29">
+        <v>3</v>
+      </c>
+      <c r="F26" s="29">
+        <v>22</v>
+      </c>
+      <c r="G26" s="29">
+        <v>3</v>
+      </c>
+      <c r="H26" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="C27" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="29">
+        <v>23</v>
+      </c>
+      <c r="E27" s="29">
+        <v>3</v>
+      </c>
+      <c r="F27" s="29">
+        <v>23</v>
+      </c>
+      <c r="G27" s="29">
+        <v>3</v>
+      </c>
+      <c r="H27" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="C28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="29">
+        <v>24</v>
+      </c>
+      <c r="E28" s="29">
+        <v>2</v>
+      </c>
+      <c r="F28" s="29">
+        <v>24</v>
+      </c>
+      <c r="G28" s="29">
+        <v>2</v>
+      </c>
+      <c r="H28" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="29">
+        <v>25</v>
+      </c>
+      <c r="E29" s="29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="29">
+        <v>25</v>
+      </c>
+      <c r="G29" s="29">
+        <v>2</v>
+      </c>
+      <c r="H29" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="C30" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="29">
+        <v>25</v>
+      </c>
+      <c r="E30" s="29">
+        <v>2</v>
+      </c>
+      <c r="F30" s="29">
+        <v>25</v>
+      </c>
+      <c r="G30" s="29">
+        <v>2</v>
+      </c>
+      <c r="H30" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="C31" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="29">
+        <v>24</v>
+      </c>
+      <c r="E31" s="29">
+        <v>2</v>
+      </c>
+      <c r="F31" s="29">
+        <v>24</v>
+      </c>
+      <c r="G31" s="29">
+        <v>2</v>
+      </c>
+      <c r="H31" s="28">
         <v>5</v>
       </c>
-      <c r="E10" s="40">
-        <v>4</v>
-      </c>
-      <c r="F10" s="40">
-        <v>5</v>
-      </c>
-      <c r="G10" s="40">
-        <v>5</v>
-      </c>
-      <c r="H10" s="40">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="C11" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="40">
-        <v>6</v>
-      </c>
-      <c r="E11" s="40">
-        <v>2</v>
-      </c>
-      <c r="F11" s="40">
-        <v>6</v>
-      </c>
-      <c r="G11" s="40">
-        <v>3</v>
-      </c>
-      <c r="H11" s="40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="C12" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="40">
-        <v>7</v>
-      </c>
-      <c r="E12" s="40">
-        <v>2</v>
-      </c>
-      <c r="F12" s="40">
-        <v>7</v>
-      </c>
-      <c r="G12" s="40">
-        <v>3</v>
-      </c>
-      <c r="H12" s="40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="C13" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="40">
-        <v>7</v>
-      </c>
-      <c r="E13" s="40">
-        <v>2</v>
-      </c>
-      <c r="F13" s="40">
-        <v>7</v>
-      </c>
-      <c r="G13" s="40">
-        <v>2</v>
-      </c>
-      <c r="H13" s="40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="34" t="s">
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="C32" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="29">
+        <v>28</v>
+      </c>
+      <c r="E32" s="29">
+        <v>2</v>
+      </c>
+      <c r="F32" s="29">
+        <v>28</v>
+      </c>
+      <c r="G32" s="29">
+        <v>2</v>
+      </c>
+      <c r="H32" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+      <c r="C33" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="29">
         <v>24</v>
       </c>
-      <c r="D14" s="40">
-        <v>8</v>
-      </c>
-      <c r="E14" s="40">
-        <v>3</v>
-      </c>
-      <c r="F14" s="40">
-        <v>8</v>
-      </c>
-      <c r="G14" s="40">
-        <v>3</v>
-      </c>
-      <c r="H14" s="40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="C15" s="34" t="s">
+      <c r="E33" s="29">
+        <v>2</v>
+      </c>
+      <c r="F33" s="29">
+        <v>24</v>
+      </c>
+      <c r="G33" s="29">
+        <v>2</v>
+      </c>
+      <c r="H33" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="C34" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="29">
+        <v>26</v>
+      </c>
+      <c r="E34" s="29">
+        <v>2</v>
+      </c>
+      <c r="F34" s="29">
+        <v>26</v>
+      </c>
+      <c r="G34" s="29">
+        <v>2</v>
+      </c>
+      <c r="H34" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="29">
+        <v>30</v>
+      </c>
+      <c r="E35" s="29">
+        <v>2</v>
+      </c>
+      <c r="F35" s="29">
+        <v>30</v>
+      </c>
+      <c r="G35" s="29">
+        <v>2</v>
+      </c>
+      <c r="H35" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+      <c r="C36" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="29">
+        <v>32</v>
+      </c>
+      <c r="E36" s="29">
+        <v>2</v>
+      </c>
+      <c r="F36" s="29">
+        <v>31</v>
+      </c>
+      <c r="G36" s="29">
+        <v>2</v>
+      </c>
+      <c r="H36" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31"/>
+      <c r="C37" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="29">
+        <v>33</v>
+      </c>
+      <c r="E37" s="29">
+        <v>2</v>
+      </c>
+      <c r="F37" s="29">
+        <v>33</v>
+      </c>
+      <c r="G37" s="29">
+        <v>2</v>
+      </c>
+      <c r="H37" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="31"/>
+      <c r="C38" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="28">
         <v>25</v>
       </c>
-      <c r="D15" s="40">
-        <v>9</v>
-      </c>
-      <c r="E15" s="40">
-        <v>4</v>
-      </c>
-      <c r="F15" s="40">
-        <v>9</v>
-      </c>
-      <c r="G15" s="40">
-        <v>5</v>
-      </c>
-      <c r="H15" s="40">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
-      <c r="C16" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="40">
-        <v>10</v>
-      </c>
-      <c r="E16" s="40">
-        <v>3</v>
-      </c>
-      <c r="F16" s="40">
-        <v>10</v>
-      </c>
-      <c r="G16" s="40">
-        <v>3</v>
-      </c>
-      <c r="H16" s="40">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="C17" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="40">
-        <v>11</v>
-      </c>
-      <c r="E17" s="40">
-        <v>3</v>
-      </c>
-      <c r="F17" s="40">
-        <v>11</v>
-      </c>
-      <c r="G17" s="40">
-        <v>3</v>
-      </c>
-      <c r="H17" s="40">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
-      <c r="C18" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="40">
-        <v>12</v>
-      </c>
-      <c r="E18" s="40">
-        <v>4</v>
-      </c>
-      <c r="F18" s="40">
-        <v>12</v>
-      </c>
-      <c r="G18" s="40">
-        <v>4</v>
-      </c>
-      <c r="H18" s="40">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="40">
-        <v>8</v>
-      </c>
-      <c r="E19" s="40">
-        <v>3</v>
-      </c>
-      <c r="F19" s="40">
-        <v>8</v>
-      </c>
-      <c r="G19" s="40">
-        <v>3</v>
-      </c>
-      <c r="H19" s="40">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
-      <c r="C20" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="40">
-        <v>9</v>
-      </c>
-      <c r="E20" s="40">
-        <v>3</v>
-      </c>
-      <c r="F20" s="40">
-        <v>9</v>
-      </c>
-      <c r="G20" s="40">
-        <v>3</v>
-      </c>
-      <c r="H20" s="40">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
-      <c r="C21" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="40">
-        <v>10</v>
-      </c>
-      <c r="E21" s="40">
-        <v>3</v>
-      </c>
-      <c r="F21" s="40">
-        <v>10</v>
-      </c>
-      <c r="G21" s="40">
-        <v>3</v>
-      </c>
-      <c r="H21" s="40">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
-      <c r="C22" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="40">
-        <v>11</v>
-      </c>
-      <c r="E22" s="40">
-        <v>2</v>
-      </c>
-      <c r="F22" s="40">
-        <v>11</v>
-      </c>
-      <c r="G22" s="40">
-        <v>2</v>
-      </c>
-      <c r="H22" s="40">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="C23" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="40">
-        <v>12</v>
-      </c>
-      <c r="E23" s="40">
-        <v>3</v>
-      </c>
-      <c r="F23" s="40">
-        <v>12</v>
-      </c>
-      <c r="G23" s="40">
-        <v>3</v>
-      </c>
-      <c r="H23" s="40">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="40">
-        <v>13</v>
-      </c>
-      <c r="E24" s="40">
-        <v>2</v>
-      </c>
-      <c r="F24" s="40">
-        <v>13</v>
-      </c>
-      <c r="G24" s="40">
-        <v>2</v>
-      </c>
-      <c r="H24" s="40">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="C25" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="40">
-        <v>13</v>
-      </c>
-      <c r="E25" s="40">
-        <v>2</v>
-      </c>
-      <c r="F25" s="40">
-        <v>13</v>
-      </c>
-      <c r="G25" s="40">
-        <v>2</v>
-      </c>
-      <c r="H25" s="40">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="C26" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="40">
-        <v>14</v>
-      </c>
-      <c r="E26" s="40">
-        <v>3</v>
-      </c>
-      <c r="F26" s="40">
-        <v>14</v>
-      </c>
-      <c r="G26" s="40">
-        <v>3</v>
-      </c>
-      <c r="H26" s="40">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="C27" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="40">
-        <v>15</v>
-      </c>
-      <c r="E27" s="40">
-        <v>3</v>
-      </c>
-      <c r="F27" s="40">
-        <v>15</v>
-      </c>
-      <c r="G27" s="40">
-        <v>3</v>
-      </c>
-      <c r="H27" s="40">
+      <c r="E38" s="28">
+        <v>2</v>
+      </c>
+      <c r="F38" s="28">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="C28" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="40">
-        <v>16</v>
-      </c>
-      <c r="E28" s="40">
-        <v>3</v>
-      </c>
-      <c r="F28" s="40">
-        <v>16</v>
-      </c>
-      <c r="G28" s="40">
-        <v>3</v>
-      </c>
-      <c r="H28" s="40">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="40">
-        <v>17</v>
-      </c>
-      <c r="E29" s="40">
-        <v>2</v>
-      </c>
-      <c r="F29" s="40">
-        <v>17</v>
-      </c>
-      <c r="G29" s="40">
-        <v>2</v>
-      </c>
-      <c r="H29" s="40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
-      <c r="C30" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="40">
-        <v>18</v>
-      </c>
-      <c r="E30" s="40">
-        <v>2</v>
-      </c>
-      <c r="F30" s="40">
-        <v>18</v>
-      </c>
-      <c r="G30" s="40">
-        <v>2</v>
-      </c>
-      <c r="H30" s="40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="C31" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="40">
-        <v>19</v>
-      </c>
-      <c r="E31" s="40">
-        <v>2</v>
-      </c>
-      <c r="F31" s="40">
-        <v>19</v>
-      </c>
-      <c r="G31" s="40">
-        <v>2</v>
-      </c>
-      <c r="H31" s="40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="C32" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="40">
-        <v>20</v>
-      </c>
-      <c r="E32" s="40">
-        <v>2</v>
-      </c>
-      <c r="F32" s="40">
-        <v>20</v>
-      </c>
-      <c r="G32" s="40">
-        <v>2</v>
-      </c>
-      <c r="H32" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="C33" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="40">
-        <v>21</v>
-      </c>
-      <c r="E33" s="40">
-        <v>2</v>
-      </c>
-      <c r="F33" s="40">
-        <v>21</v>
-      </c>
-      <c r="G33" s="40">
-        <v>2</v>
-      </c>
-      <c r="H33" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="C34" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="40">
-        <v>22</v>
-      </c>
-      <c r="E34" s="40">
-        <v>2</v>
-      </c>
-      <c r="F34" s="40">
-        <v>22</v>
-      </c>
-      <c r="G34" s="40">
-        <v>2</v>
-      </c>
-      <c r="H34" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="40">
-        <v>22</v>
-      </c>
-      <c r="E35" s="40">
-        <v>2</v>
-      </c>
-      <c r="F35" s="40">
-        <v>22</v>
-      </c>
-      <c r="G35" s="40">
-        <v>2</v>
-      </c>
-      <c r="H35" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="C36" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="40">
-        <v>23</v>
-      </c>
-      <c r="E36" s="40">
-        <v>2</v>
-      </c>
-      <c r="F36" s="40">
-        <v>23</v>
-      </c>
-      <c r="G36" s="40">
-        <v>2</v>
-      </c>
-      <c r="H36" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="C37" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="40">
-        <v>24</v>
-      </c>
-      <c r="E37" s="40">
-        <v>2</v>
-      </c>
-      <c r="F37" s="40">
-        <v>24</v>
-      </c>
-      <c r="G37" s="40">
-        <v>2</v>
-      </c>
-      <c r="H37" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="C38" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="40">
-        <v>25</v>
-      </c>
-      <c r="E38" s="40">
-        <v>2</v>
-      </c>
-      <c r="F38" s="40">
-        <v>25</v>
-      </c>
-      <c r="G38" s="40">
-        <v>2</v>
-      </c>
-      <c r="H38" s="40">
+      <c r="G38" s="28">
+        <v>2</v>
+      </c>
+      <c r="H38" s="28">
         <v>0</v>
       </c>
     </row>
@@ -2392,7 +2428,14 @@
       <c r="I67" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="15">
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AB2:AH2"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A35:A38"/>
@@ -2401,55 +2444,44 @@
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AB2:AH2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C30:H30">
+  <conditionalFormatting sqref="C30 H30">
     <cfRule type="expression" dxfId="9" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I5:L5 N5:BP5 I6:BP38">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>I$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="11">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="12">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I4:BP4">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>I$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:BP5 I5:L5 I6:BP38">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>I$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="12">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="16">
+  <dataValidations count="12">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="B1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="I2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
@@ -2461,10 +2493,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AI2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="I3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="H3:H4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="C1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="C2:G2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
@@ -2476,4 +2504,514 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADE72F6-A5A5-408A-BD8B-468F99EA6EB0}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="36.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="29">
+        <v>2</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="29">
+        <v>3</v>
+      </c>
+      <c r="D3" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="29">
+        <v>4</v>
+      </c>
+      <c r="D4" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="29">
+        <v>2</v>
+      </c>
+      <c r="D5" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="29">
+        <v>3</v>
+      </c>
+      <c r="D6" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="29">
+        <v>5</v>
+      </c>
+      <c r="D7" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="29">
+        <v>3</v>
+      </c>
+      <c r="D8" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="29">
+        <v>3</v>
+      </c>
+      <c r="D9" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
+        <v>9</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="29">
+        <v>2</v>
+      </c>
+      <c r="D10" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="29">
+        <v>3</v>
+      </c>
+      <c r="D11" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="29">
+        <v>5</v>
+      </c>
+      <c r="D12" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="29">
+        <v>12</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="29">
+        <v>3</v>
+      </c>
+      <c r="D13" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="29">
+        <v>3</v>
+      </c>
+      <c r="D14" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="29">
+        <v>14</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="29">
+        <v>4</v>
+      </c>
+      <c r="D15" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="29">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="29">
+        <v>3</v>
+      </c>
+      <c r="D16" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="29">
+        <v>16</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="29">
+        <v>3</v>
+      </c>
+      <c r="D17" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="29">
+        <v>17</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="29">
+        <v>3</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="29">
+        <v>18</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="29">
+        <v>2</v>
+      </c>
+      <c r="D19" s="29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="29">
+        <v>19</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="29">
+        <v>3</v>
+      </c>
+      <c r="D20" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="29">
+        <v>20</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="29">
+        <v>2</v>
+      </c>
+      <c r="D21" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="29">
+        <v>21</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="29">
+        <v>2</v>
+      </c>
+      <c r="D22" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="29">
+        <v>22</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="29">
+        <v>3</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="29">
+        <v>23</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="29">
+        <v>3</v>
+      </c>
+      <c r="D24" s="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="29">
+        <v>24</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="29">
+        <v>3</v>
+      </c>
+      <c r="D25" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="29">
+        <v>25</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="29">
+        <v>2</v>
+      </c>
+      <c r="D26" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="29">
+        <v>26</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="29">
+        <v>2</v>
+      </c>
+      <c r="D27" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="29">
+        <v>27</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="29">
+        <v>2</v>
+      </c>
+      <c r="D28" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="29">
+        <v>2</v>
+      </c>
+      <c r="D29" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="29">
+        <v>29</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="29">
+        <v>2</v>
+      </c>
+      <c r="D30" s="29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="29">
+        <v>30</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="29">
+        <v>2</v>
+      </c>
+      <c r="D31" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="29">
+        <v>31</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="29">
+        <v>2</v>
+      </c>
+      <c r="D32" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="29">
+        <v>32</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="29">
+        <v>2</v>
+      </c>
+      <c r="D33" s="29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="29">
+        <v>33</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="29">
+        <v>2</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="29">
+        <v>34</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="29">
+        <v>2</v>
+      </c>
+      <c r="D35" s="29">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>